--- a/uploads/Resultado_final.xlsx
+++ b/uploads/Resultado_final.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection lockStructure="1" workbookAlgorithmName="SHA-512" workbookHashValue="h/qS0/RJIBHwv595gOa7QHY0OerpayrQfV1VrA3eWxP05qsY23l5TcOZdUTxslS79Pd9liPj+riUMeLGpuE4cg==" workbookSaltValue="f+x0RiNgVa7zNB+opfUVjg==" workbookSpinCount="100000"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -410,8 +411,8 @@
   </sheetPr>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
